--- a/gd/MT/各个Demo跟进内容/10.7号讨论问题.xlsx
+++ b/gd/MT/各个Demo跟进内容/10.7号讨论问题.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/gd/MT/各个Demo跟进内容/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/MT/各个Demo跟进内容/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="540" windowWidth="33560" windowHeight="18560" tabRatio="500"/>
+    <workbookView xWindow="5360" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="194">
   <si>
     <t>负责人</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>大家对物攻大招怪，拥有一个法攻击还是觉得难以理解，防御，偷懒有类似问题，如何让玩家建议理解，摒弃一部分，梯级，AI等问题</t>
-  </si>
-  <si>
-    <t>对方Boss大招逻辑使用时间没有规律， 难以理解，预告特效也不明显</t>
   </si>
   <si>
     <t>什么样情况可以打断？</t>
@@ -722,9 +719,6 @@
     <t>1、大招积攒频率是可以调整的，这样的话手动造作在战斗中占比会加强，托管需要考虑</t>
   </si>
   <si>
-    <t>法术大招加“可点“</t>
-  </si>
-  <si>
     <t>感觉游戏节奏慢， 猜想原因
 大招点了后有等待的时间
 换怪节奏慢
@@ -787,9 +781,6 @@
   </si>
   <si>
     <t>花魄加武器， 保留dps</t>
-  </si>
-  <si>
-    <t>大致跟帆爷说的方案， 策划出具体需求</t>
   </si>
   <si>
     <t>参考COC，找巴赫写GameofWar类游戏做法，请提供其他值得参考游戏。</t>
@@ -848,6 +839,21 @@
     <t>发任务（辛炜）
 MG-1366</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方Boss大招逻辑使用时间没有规律， 难以理解，预告特效也不明显（图标）</t>
+  </si>
+  <si>
+    <t>法术大招加“可点“（“主动”“被动”大招）（“画阵/点”）</t>
+  </si>
+  <si>
+    <t>再考虑</t>
+  </si>
+  <si>
+    <t>大致跟帆爷说的方案， 策划出具体需求，打断画面碎掉</t>
+  </si>
+  <si>
+    <t>“未”找出弱点提示</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -866,7 +872,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,7 +880,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -882,13 +888,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -967,7 +973,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1010,23 +1016,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1042,16 +1051,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20419</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>379008</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>325219</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>184274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>457191</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177856</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>761991</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>592722</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1068,8 +1077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17004552" y="3223808"/>
-          <a:ext cx="2561905" cy="1813264"/>
+          <a:off x="17546419" y="4857874"/>
+          <a:ext cx="2561905" cy="1830848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,16 +1089,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1302372</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1463239</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88154</xdr:rowOff>
+      <xdr:rowOff>443754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2678393</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>363960</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1840193</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1106,8 +1115,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18286505" y="5777754"/>
-          <a:ext cx="3501154" cy="1901407"/>
+          <a:off x="20809572" y="6539754"/>
+          <a:ext cx="3501154" cy="1901406"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,16 +1127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>233579</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>178300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250512</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>328924</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>145452</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>345857</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>390985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1144,8 +1153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19342846" y="3429500"/>
-          <a:ext cx="3219545" cy="1575168"/>
+          <a:off x="19596845" y="4894233"/>
+          <a:ext cx="3219545" cy="1592752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1420,35 +1429,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" style="2"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="51.33203125" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" customWidth="1"/>
-    <col min="11" max="11" width="27.83203125" customWidth="1"/>
-    <col min="12" max="13" width="41" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="51.33203125" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" customWidth="1"/>
+    <col min="13" max="14" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="H1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
@@ -1457,30 +1466,30 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1491,23 +1500,24 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1518,23 +1528,24 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1545,22 +1556,23 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1574,19 +1586,19 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1603,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1614,22 +1626,23 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="G12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1640,19 +1653,20 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="J13" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1660,10 +1674,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1671,24 +1685,24 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:11" ht="75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1699,28 +1713,29 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>11</v>
       </c>
@@ -1731,25 +1746,26 @@
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1763,25 +1779,26 @@
         <v>22</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+      <c r="K20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1792,25 +1809,29 @@
         <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>14</v>
       </c>
@@ -1821,25 +1842,26 @@
         <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>15</v>
       </c>
@@ -1850,29 +1872,30 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="K23" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>16</v>
       </c>
@@ -1883,20 +1906,21 @@
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="75" x14ac:dyDescent="0.15">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>17</v>
       </c>
@@ -1907,21 +1931,21 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1932,20 +1956,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>19</v>
       </c>
@@ -1959,25 +1984,26 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="29" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1988,25 +2014,26 @@
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>21</v>
       </c>
@@ -2017,25 +2044,26 @@
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>22</v>
       </c>
@@ -2046,21 +2074,22 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.15">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>23</v>
       </c>
@@ -2071,19 +2100,20 @@
         <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="G33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>24</v>
       </c>
@@ -2097,157 +2127,137 @@
         <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="12" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="37" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>25</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="105" x14ac:dyDescent="0.15">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40">
+      <c r="H40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>28</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="42" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>29</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
@@ -2256,37 +2266,52 @@
         <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="75" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>17</v>
@@ -2295,377 +2320,399 @@
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.15">
+      <c r="H45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="9" t="s">
+      <c r="H46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.15">
-      <c r="A50">
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>35</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" ht="75" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>36</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.15">
-      <c r="A53">
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>36</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>37</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="55" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="9" t="s">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="56" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>38</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="22" t="s">
+      <c r="H59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>39</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I58" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.15">
-      <c r="A62">
+      <c r="I59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="63" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>40</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="180" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <v>41</v>
-      </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J63" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="L63" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="M63" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.15">
+      <c r="F63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" ht="180" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H64" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M64" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>44</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67">
+      <c r="H67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>45</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A68">
+      <c r="D68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>46</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="I68" t="s">
-        <v>173</v>
+      <c r="D69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
